--- a/src/test/resources/Excel_data.xlsx
+++ b/src/test/resources/Excel_data.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace\DRB\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD66040-8E5E-49F9-BAD0-5A831B64859B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{14530AC1-BB83-45C5-A42E-DF115B1AAB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -22,11 +17,12 @@
     <sheet name="LogOut" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -44,13 +40,229 @@
   </si>
   <si>
     <t>sabi</t>
+  </si>
+  <si>
+    <t>kavitha</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>12-12-1988</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fffff@gmail.com</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>School Stream</t>
+  </si>
+  <si>
+    <t>CBSC</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School </t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>year of pass</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>malayalam</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>I jdsfsfsdfdsf sdfsdfsdfsgsddsfsfsf. I jfsdjfdjsjsdjgjsjsjdfjsfd xfsdfsdjfsjfjf.</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>All Valid</t>
+  </si>
+  <si>
+    <t>deepu</t>
+  </si>
+  <si>
+    <t>11-11-1986</t>
+  </si>
+  <si>
+    <t>deep@gmail.com</t>
+  </si>
+  <si>
+    <t>1231231234</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Highersec</t>
+  </si>
+  <si>
+    <t>Highersec percentage</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>BTECH</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>IT/CS</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>PostGraduation</t>
+  </si>
+  <si>
+    <t>MTECH</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Library Management</t>
+  </si>
+  <si>
+    <t>Project Desc</t>
+  </si>
+  <si>
+    <t>Automated Library Management sys</t>
+  </si>
+  <si>
+    <t>Additional Course Type</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>PGDAC</t>
+  </si>
+  <si>
+    <t>Exp:Job title</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>malayaalm,english</t>
+  </si>
+  <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>c#,java</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaa ddddddddddddddd vvvvvvvvvvvvvvv</t>
+  </si>
+  <si>
+    <t>DRB\src\test\resources\photo.jpg</t>
+  </si>
+  <si>
+    <t>I am passionate,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -68,6 +280,29 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,12 +327,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -323,9 +563,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -336,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -363,15 +603,15 @@
       <selection activeCell="B6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
   </sheetData>
@@ -384,31 +624,430 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:B10"/>
+  <dimension ref="A2:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="10" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{B091A9E3-6AF3-461B-8E9A-CDAE5D126900}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{8D81F4B3-28FB-4BCB-8BB2-DE1B2472471E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -423,21 +1062,21 @@
       <selection activeCell="A4" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
-    <row r="5" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="8" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="10" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
   </sheetData>
@@ -454,7 +1093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -469,7 +1108,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -482,11 +1121,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
